--- a/Data_file/Flight_data.xlsx
+++ b/Data_file/Flight_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHAY SHARMA\coforge-workspace\com.Booking_flight\Data_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abhay\com.Booking_flight\Data_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E91729-7073-4FE2-A341-854281B8375A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DE7F9-9B55-431F-AC4C-39EC962896F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D11819A-DB4D-4424-A99C-665EBF146587}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>From</t>
   </si>
@@ -177,6 +169,9 @@
   </si>
   <si>
     <t>Swimming Pool,Wi-Fi,Spa,Barbeque,Bar,Parking,Restaurant,Bus Station Transfers</t>
+  </si>
+  <si>
+    <t>OneWay</t>
   </si>
 </sst>
 </file>
@@ -229,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -238,7 +233,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -557,7 +551,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>40</v>
@@ -665,7 +659,7 @@
       <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
